--- a/class15/Database_structure_Ver2.xlsx
+++ b/class15/Database_structure_Ver2.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\orbus_classes\Class14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\orbus_classes\class15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0DD905D-2F5B-4164-A6D5-D1CDC24C172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CFE25F-1C75-4B57-B711-A0B788EC0575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FB418BBD-047F-4CC8-948B-DA05CCFD43D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FB418BBD-047F-4CC8-948B-DA05CCFD43D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="175">
   <si>
     <t>id</t>
   </si>
@@ -379,12 +380,6 @@
     <t>prod_id (FK)</t>
   </si>
   <si>
-    <t>Color ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Review </t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
@@ -403,14 +398,176 @@
     <t>Home Page</t>
   </si>
   <si>
-    <t>Order_management</t>
+    <t>master_colors</t>
+  </si>
+  <si>
+    <t>color_name</t>
+  </si>
+  <si>
+    <t>color_code</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>dark black</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>total_qty</t>
+  </si>
+  <si>
+    <t>/img/abc.png</t>
+  </si>
+  <si>
+    <t>/img/abc2.png</t>
+  </si>
+  <si>
+    <t>/img/abc3.png</t>
+  </si>
+  <si>
+    <t>size_id</t>
+  </si>
+  <si>
+    <t>color_id</t>
+  </si>
+  <si>
+    <t>prod_attribute</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <t>Table 4</t>
+  </si>
+  <si>
+    <t>Table 5</t>
+  </si>
+  <si>
+    <t>Table 6</t>
+  </si>
+  <si>
+    <t>product_review</t>
+  </si>
+  <si>
+    <t>product_id (FK)</t>
+  </si>
+  <si>
+    <t>review_on</t>
+  </si>
+  <si>
+    <t>review_txt</t>
+  </si>
+  <si>
+    <t>bla bla</t>
+  </si>
+  <si>
+    <t>star_rating</t>
+  </si>
+  <si>
+    <t>Module: Cart Management</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>visitor_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>paymet_status</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>cart_id</t>
+  </si>
+  <si>
+    <t>paymet_mode</t>
+  </si>
+  <si>
+    <t>Net Banking</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>cancelled orders</t>
+  </si>
+  <si>
+    <t>transaction_id</t>
+  </si>
+  <si>
+    <t>order management</t>
+  </si>
+  <si>
+    <t>user_type (FK)</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Alter</t>
+  </si>
+  <si>
+    <t>CREATE TABLE my_table (</t>
+  </si>
+  <si>
+    <t>    id INT PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t>    field_a VARCHAR(100),</t>
+  </si>
+  <si>
+    <t>    field_b VARCHAR(100),</t>
+  </si>
+  <si>
+    <t>    CONSTRAINT chk_field_a_or_b_not_null</t>
+  </si>
+  <si>
+    <t>        CHECK (field_a IS NOT NULL OR field_b IS NOT NULL)</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert </t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Fetch</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/share/68982628-f7d8-8013-b253-89d9c287a9bc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,8 +613,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,8 +634,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -507,32 +689,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -663,13 +862,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>679938</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>70338</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1012,793 +1211,1116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3251B486-9D20-40D9-9CB1-C508412D3558}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A9:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="B25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="H11" s="1">
+        <v>987654567</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="5">
+        <v>45878.757245370369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="1">
+        <v>999765112</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8765432123</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="5">
+        <v>45878.757245370369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9876545678</v>
+      </c>
+      <c r="H13" s="1">
+        <v>987654321</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="5">
+        <v>45878.757245370369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E14" s="11">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="8">
+        <v>123456</v>
+      </c>
+      <c r="H14" s="8">
+        <v>9876543214</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="5">
+        <v>45879.757245312503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>706</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="1">
+        <v>201002</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="1">
+        <v>122004</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="10">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>101</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="1">
+        <v>722001</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="12">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="1">
+        <v>122002</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J25" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="F27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
         <v>45874.757245370369</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H27" s="5">
         <v>45878.757245370369</v>
       </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
         <v>45875.757245312503</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="E9" s="5" t="s">
+      <c r="H33" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="B42" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="20">
+        <v>1</v>
+      </c>
+      <c r="B44" s="19">
+        <v>1</v>
+      </c>
+      <c r="C44" s="20">
+        <v>3</v>
+      </c>
+      <c r="D44" s="19">
+        <v>10</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="21">
+        <v>2</v>
+      </c>
+      <c r="B45" s="19">
+        <v>1</v>
+      </c>
+      <c r="C45" s="21">
+        <v>4</v>
+      </c>
+      <c r="D45" s="19">
+        <v>10</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="G45" s="1">
+        <v>4</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="22">
+        <v>3</v>
+      </c>
+      <c r="B46" s="19">
+        <v>1</v>
+      </c>
+      <c r="C46" s="22">
+        <v>5</v>
+      </c>
+      <c r="D46" s="19">
+        <v>5</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="G46" s="1">
+        <v>5</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="G49" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="10" t="s">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="10">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="10">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="12">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
         <v>6</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="10" t="s">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="12">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="16">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="16">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4</v>
+      </c>
+      <c r="F61" s="23">
+        <v>45870.552083333336</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="3">
-        <v>123456789</v>
-      </c>
-      <c r="H11" s="3">
-        <v>987654567</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="3">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>2</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="1">
+        <v>5</v>
+      </c>
+      <c r="F62" s="23">
+        <v>45871.552083333336</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="8">
-        <v>45878.757245370369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="3">
-        <v>999765112</v>
-      </c>
-      <c r="H12" s="3">
-        <v>8765432123</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="8">
-        <v>45878.757245370369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="23">
+        <v>45872.552083333336</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E13" s="15">
-        <v>3</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="3">
-        <v>9876545678</v>
-      </c>
-      <c r="H13" s="3">
-        <v>987654321</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="8">
-        <v>45878.757245370369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="16">
-        <v>4</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="12">
-        <v>123456</v>
-      </c>
-      <c r="H14" s="12">
-        <v>9876543214</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="12">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="8">
-        <v>45879.757245312503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>706</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="3">
-        <v>201002</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="15">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="3">
-        <v>122004</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
-      <c r="F20" s="15">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3">
-        <v>101</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="3">
-        <v>722001</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
-      <c r="F21" s="17">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="3">
-        <v>122002</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28">
-        <v>1200</v>
-      </c>
-      <c r="E28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G36" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="G38" s="3">
-        <v>2</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3">
-        <v>3</v>
-      </c>
-      <c r="D39" s="3">
-        <v>10</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="G39" s="3">
-        <v>3</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>2</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4</v>
-      </c>
-      <c r="D40" s="3">
-        <v>10</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="G40" s="3">
-        <v>4</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>3</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
-        <v>5</v>
-      </c>
-      <c r="D41" s="3">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="G41" s="3">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1815,11 +2337,179 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5A5233-CF52-4BE1-B746-F24C4CF795CE}">
+  <dimension ref="A2:M9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="24"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="I4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25">
+        <v>2</v>
+      </c>
+      <c r="C6" s="25">
+        <v>100123</v>
+      </c>
+      <c r="D6" s="25">
+        <v>101</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>2</v>
+      </c>
+      <c r="B7" s="25">
+        <v>3</v>
+      </c>
+      <c r="C7" s="25">
+        <v>100123</v>
+      </c>
+      <c r="D7" s="25">
+        <v>101</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>200145</v>
+      </c>
+      <c r="D8" s="1">
+        <v>201</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE10DFEB-AD71-43F5-B020-02260D1AC3D0}">
-  <dimension ref="A2:A7"/>
+  <dimension ref="A2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1827,37 +2517,105 @@
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>121</v>
+      <c r="G7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="27" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K17" r:id="rId1" tooltip="https://chatgpt.com/share/68982628-f7d8-8013-b253-89d9c287a9bc" xr:uid="{D96DBBF7-021D-40A4-A9AC-8215E2959186}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>